--- a/Обрабатываемые/Опросный лист ЖТАР.xlsx
+++ b/Обрабатываемые/Опросный лист ЖТАР.xlsx
@@ -1243,6 +1243,96 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1270,101 +1360,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2730,7 +2730,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A8:L10" totalsRowShown="0" headerRowDxfId="43" dataDxfId="41" headerRowBorderDxfId="42" tableBorderDxfId="40">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="ГИД" displayName="ГИД" ref="A8:L10" totalsRowShown="0" headerRowDxfId="43" dataDxfId="41" headerRowBorderDxfId="42" tableBorderDxfId="40">
   <autoFilter ref="A8:L10"/>
   <tableColumns count="12">
     <tableColumn id="1" name="№" dataDxfId="39" totalsRowDxfId="38">
@@ -2763,7 +2763,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Таблица4" displayName="Таблица4" ref="A8:I10" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="10" tableBorderDxfId="9" totalsRowBorderDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="ПД" displayName="ПД" ref="A8:I10" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="10" tableBorderDxfId="9" totalsRowBorderDxfId="8">
   <autoFilter ref="A8:I10"/>
   <tableColumns count="9">
     <tableColumn id="1" name="№" dataDxfId="7">
@@ -3073,48 +3073,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="92" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="64"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="94"/>
     </row>
     <row r="2" spans="1:12" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="73" t="s">
         <v>96</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="90"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="75"/>
     </row>
     <row r="3" spans="1:12" s="4" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="97" t="s">
+      <c r="A3" s="82" t="s">
         <v>97</v>
       </c>
-      <c r="B3" s="98"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="98"/>
-      <c r="F3" s="98"/>
-      <c r="G3" s="99"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="84"/>
     </row>
     <row r="4" spans="1:12" s="4" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="100" t="s">
+      <c r="A4" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="101"/>
-      <c r="C4" s="101"/>
-      <c r="D4" s="101"/>
-      <c r="E4" s="101"/>
-      <c r="F4" s="101"/>
-      <c r="G4" s="102"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="87"/>
     </row>
     <row r="5" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
@@ -3141,16 +3141,16 @@
       <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="65">
+      <c r="A6" s="95">
         <v>1</v>
       </c>
-      <c r="B6" s="68" t="s">
+      <c r="B6" s="98" t="s">
         <v>94</v>
       </c>
-      <c r="C6" s="71" t="s">
+      <c r="C6" s="90" t="s">
         <v>98</v>
       </c>
-      <c r="D6" s="74" t="s">
+      <c r="D6" s="88" t="s">
         <v>27</v>
       </c>
       <c r="E6" s="13">
@@ -3159,188 +3159,188 @@
       <c r="F6" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="85" t="s">
+      <c r="G6" s="70" t="s">
         <v>12</v>
       </c>
       <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="66"/>
-      <c r="B7" s="69"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="75"/>
+      <c r="A7" s="96"/>
+      <c r="B7" s="99"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="102"/>
       <c r="E7" s="15">
         <v>2</v>
       </c>
       <c r="F7" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="86"/>
+      <c r="G7" s="71"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
     </row>
     <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="66"/>
-      <c r="B8" s="69"/>
-      <c r="C8" s="72"/>
-      <c r="D8" s="75"/>
+      <c r="A8" s="96"/>
+      <c r="B8" s="99"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="102"/>
       <c r="E8" s="15">
         <v>3</v>
       </c>
       <c r="F8" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="86"/>
+      <c r="G8" s="71"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
     </row>
     <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="66"/>
-      <c r="B9" s="69"/>
-      <c r="C9" s="72"/>
-      <c r="D9" s="75"/>
+      <c r="A9" s="96"/>
+      <c r="B9" s="99"/>
+      <c r="C9" s="101"/>
+      <c r="D9" s="102"/>
       <c r="E9" s="15">
         <v>4</v>
       </c>
       <c r="F9" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="86"/>
+      <c r="G9" s="71"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
     </row>
     <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="66"/>
-      <c r="B10" s="69"/>
-      <c r="C10" s="72"/>
-      <c r="D10" s="75"/>
+      <c r="A10" s="96"/>
+      <c r="B10" s="99"/>
+      <c r="C10" s="101"/>
+      <c r="D10" s="102"/>
       <c r="E10" s="15">
         <v>5</v>
       </c>
       <c r="F10" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="86"/>
+      <c r="G10" s="71"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
     </row>
     <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="66"/>
-      <c r="B11" s="69"/>
-      <c r="C11" s="72"/>
-      <c r="D11" s="75"/>
+      <c r="A11" s="96"/>
+      <c r="B11" s="99"/>
+      <c r="C11" s="101"/>
+      <c r="D11" s="102"/>
       <c r="E11" s="15">
         <v>6</v>
       </c>
       <c r="F11" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="G11" s="86"/>
+      <c r="G11" s="71"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="66"/>
-      <c r="B12" s="69"/>
-      <c r="C12" s="72"/>
-      <c r="D12" s="75"/>
+      <c r="A12" s="96"/>
+      <c r="B12" s="99"/>
+      <c r="C12" s="101"/>
+      <c r="D12" s="102"/>
       <c r="E12" s="15">
         <v>7</v>
       </c>
       <c r="F12" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="86"/>
+      <c r="G12" s="71"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
     </row>
     <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="66"/>
-      <c r="B13" s="69"/>
-      <c r="C13" s="72"/>
-      <c r="D13" s="75"/>
+      <c r="A13" s="96"/>
+      <c r="B13" s="99"/>
+      <c r="C13" s="101"/>
+      <c r="D13" s="102"/>
       <c r="E13" s="15">
         <v>8</v>
       </c>
       <c r="F13" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="86"/>
+      <c r="G13" s="71"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
     </row>
     <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="66"/>
-      <c r="B14" s="69"/>
-      <c r="C14" s="72"/>
-      <c r="D14" s="75"/>
+      <c r="A14" s="96"/>
+      <c r="B14" s="99"/>
+      <c r="C14" s="101"/>
+      <c r="D14" s="102"/>
       <c r="E14" s="15">
         <v>9</v>
       </c>
       <c r="F14" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="G14" s="86"/>
+      <c r="G14" s="71"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
     </row>
     <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="66"/>
-      <c r="B15" s="69"/>
-      <c r="C15" s="72"/>
-      <c r="D15" s="75"/>
+      <c r="A15" s="96"/>
+      <c r="B15" s="99"/>
+      <c r="C15" s="101"/>
+      <c r="D15" s="102"/>
       <c r="E15" s="15">
         <v>10</v>
       </c>
       <c r="F15" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="G15" s="86"/>
+      <c r="G15" s="71"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
     </row>
     <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="66"/>
-      <c r="B16" s="69"/>
-      <c r="C16" s="72"/>
-      <c r="D16" s="75"/>
+      <c r="A16" s="96"/>
+      <c r="B16" s="99"/>
+      <c r="C16" s="101"/>
+      <c r="D16" s="102"/>
       <c r="E16" s="15">
         <v>11</v>
       </c>
       <c r="F16" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="G16" s="86"/>
+      <c r="G16" s="71"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="L16" s="4"/>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="67"/>
-      <c r="B17" s="70"/>
-      <c r="C17" s="73"/>
-      <c r="D17" s="76"/>
+      <c r="A17" s="97"/>
+      <c r="B17" s="100"/>
+      <c r="C17" s="91"/>
+      <c r="D17" s="89"/>
       <c r="E17" s="20">
         <v>12</v>
       </c>
       <c r="F17" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="G17" s="87"/>
+      <c r="G17" s="72"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
     </row>
     <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="91">
+      <c r="A18" s="76">
         <v>2</v>
       </c>
-      <c r="B18" s="77" t="s">
+      <c r="B18" s="62" t="s">
         <v>90</v>
       </c>
-      <c r="C18" s="94" t="s">
+      <c r="C18" s="79" t="s">
         <v>99</v>
       </c>
-      <c r="D18" s="77" t="s">
+      <c r="D18" s="62" t="s">
         <v>28</v>
       </c>
       <c r="E18" s="13">
@@ -3349,209 +3349,209 @@
       <c r="F18" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="G18" s="80" t="s">
+      <c r="G18" s="65" t="s">
         <v>12</v>
       </c>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
     </row>
     <row r="19" spans="1:9" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="92"/>
-      <c r="B19" s="78"/>
-      <c r="C19" s="95"/>
-      <c r="D19" s="78"/>
+      <c r="A19" s="77"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="80"/>
+      <c r="D19" s="63"/>
       <c r="E19" s="15">
         <v>2</v>
       </c>
       <c r="F19" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="G19" s="81"/>
+      <c r="G19" s="66"/>
     </row>
     <row r="20" spans="1:9" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="92"/>
-      <c r="B20" s="78"/>
-      <c r="C20" s="95"/>
-      <c r="D20" s="78"/>
+      <c r="A20" s="77"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="80"/>
+      <c r="D20" s="63"/>
       <c r="E20" s="15">
         <v>3</v>
       </c>
       <c r="F20" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="G20" s="81"/>
+      <c r="G20" s="66"/>
     </row>
     <row r="21" spans="1:9" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="92"/>
-      <c r="B21" s="78"/>
-      <c r="C21" s="95"/>
-      <c r="D21" s="78"/>
+      <c r="A21" s="77"/>
+      <c r="B21" s="63"/>
+      <c r="C21" s="80"/>
+      <c r="D21" s="63"/>
       <c r="E21" s="15">
         <v>4</v>
       </c>
       <c r="F21" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="G21" s="81"/>
+      <c r="G21" s="66"/>
     </row>
     <row r="22" spans="1:9" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="92"/>
-      <c r="B22" s="78"/>
-      <c r="C22" s="95"/>
-      <c r="D22" s="78"/>
+      <c r="A22" s="77"/>
+      <c r="B22" s="63"/>
+      <c r="C22" s="80"/>
+      <c r="D22" s="63"/>
       <c r="E22" s="15">
         <v>5</v>
       </c>
       <c r="F22" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="G22" s="81"/>
+      <c r="G22" s="66"/>
     </row>
     <row r="23" spans="1:9" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="92"/>
-      <c r="B23" s="78"/>
-      <c r="C23" s="95"/>
-      <c r="D23" s="78"/>
+      <c r="A23" s="77"/>
+      <c r="B23" s="63"/>
+      <c r="C23" s="80"/>
+      <c r="D23" s="63"/>
       <c r="E23" s="15">
         <v>6</v>
       </c>
       <c r="F23" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="G23" s="81"/>
+      <c r="G23" s="66"/>
     </row>
     <row r="24" spans="1:9" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="92"/>
-      <c r="B24" s="78"/>
-      <c r="C24" s="95"/>
-      <c r="D24" s="78"/>
+      <c r="A24" s="77"/>
+      <c r="B24" s="63"/>
+      <c r="C24" s="80"/>
+      <c r="D24" s="63"/>
       <c r="E24" s="15">
         <v>7</v>
       </c>
       <c r="F24" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="G24" s="81"/>
+      <c r="G24" s="66"/>
     </row>
     <row r="25" spans="1:9" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="92"/>
-      <c r="B25" s="78"/>
-      <c r="C25" s="95"/>
-      <c r="D25" s="78"/>
+      <c r="A25" s="77"/>
+      <c r="B25" s="63"/>
+      <c r="C25" s="80"/>
+      <c r="D25" s="63"/>
       <c r="E25" s="15">
         <v>8</v>
       </c>
       <c r="F25" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="G25" s="81"/>
+      <c r="G25" s="66"/>
     </row>
     <row r="26" spans="1:9" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="92"/>
-      <c r="B26" s="78"/>
-      <c r="C26" s="95"/>
-      <c r="D26" s="78"/>
+      <c r="A26" s="77"/>
+      <c r="B26" s="63"/>
+      <c r="C26" s="80"/>
+      <c r="D26" s="63"/>
       <c r="E26" s="15">
         <v>9</v>
       </c>
       <c r="F26" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="G26" s="81"/>
+      <c r="G26" s="66"/>
     </row>
     <row r="27" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="92"/>
-      <c r="B27" s="78"/>
-      <c r="C27" s="95"/>
-      <c r="D27" s="78"/>
+      <c r="A27" s="77"/>
+      <c r="B27" s="63"/>
+      <c r="C27" s="80"/>
+      <c r="D27" s="63"/>
       <c r="E27" s="15">
         <v>10</v>
       </c>
       <c r="F27" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="G27" s="81"/>
+      <c r="G27" s="66"/>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
     </row>
     <row r="28" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="92"/>
-      <c r="B28" s="78"/>
-      <c r="C28" s="95"/>
-      <c r="D28" s="78"/>
+      <c r="A28" s="77"/>
+      <c r="B28" s="63"/>
+      <c r="C28" s="80"/>
+      <c r="D28" s="63"/>
       <c r="E28" s="15">
         <v>11</v>
       </c>
       <c r="F28" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="G28" s="81"/>
+      <c r="G28" s="66"/>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
     </row>
     <row r="29" spans="1:9" s="4" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="92"/>
-      <c r="B29" s="78"/>
-      <c r="C29" s="95"/>
-      <c r="D29" s="78"/>
+      <c r="A29" s="77"/>
+      <c r="B29" s="63"/>
+      <c r="C29" s="80"/>
+      <c r="D29" s="63"/>
       <c r="E29" s="15">
         <v>12</v>
       </c>
       <c r="F29" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="G29" s="81"/>
+      <c r="G29" s="66"/>
     </row>
     <row r="30" spans="1:9" s="4" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="92"/>
-      <c r="B30" s="78"/>
-      <c r="C30" s="95"/>
-      <c r="D30" s="78"/>
+      <c r="A30" s="77"/>
+      <c r="B30" s="63"/>
+      <c r="C30" s="80"/>
+      <c r="D30" s="63"/>
       <c r="E30" s="15">
         <v>13</v>
       </c>
       <c r="F30" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="G30" s="81"/>
+      <c r="G30" s="66"/>
     </row>
     <row r="31" spans="1:9" s="4" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="92"/>
-      <c r="B31" s="78"/>
-      <c r="C31" s="95"/>
-      <c r="D31" s="78"/>
+      <c r="A31" s="77"/>
+      <c r="B31" s="63"/>
+      <c r="C31" s="80"/>
+      <c r="D31" s="63"/>
       <c r="E31" s="15">
         <v>14</v>
       </c>
       <c r="F31" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="G31" s="81"/>
+      <c r="G31" s="66"/>
     </row>
     <row r="32" spans="1:9" s="4" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="93"/>
-      <c r="B32" s="79"/>
-      <c r="C32" s="96"/>
-      <c r="D32" s="79"/>
+      <c r="A32" s="78"/>
+      <c r="B32" s="64"/>
+      <c r="C32" s="81"/>
+      <c r="D32" s="64"/>
       <c r="E32" s="20">
         <v>15</v>
       </c>
       <c r="F32" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="G32" s="82"/>
+      <c r="G32" s="67"/>
     </row>
     <row r="33" spans="1:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="83">
+      <c r="A33" s="68">
         <v>3</v>
       </c>
-      <c r="B33" s="74" t="s">
+      <c r="B33" s="88" t="s">
         <v>93</v>
       </c>
-      <c r="C33" s="71" t="s">
+      <c r="C33" s="90" t="s">
         <v>98</v>
       </c>
-      <c r="D33" s="74" t="s">
+      <c r="D33" s="88" t="s">
         <v>27</v>
       </c>
       <c r="E33" s="25">
@@ -3560,24 +3560,24 @@
       <c r="F33" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="G33" s="85" t="s">
+      <c r="G33" s="70" t="s">
         <v>12</v>
       </c>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
     </row>
     <row r="34" spans="1:9" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="84"/>
-      <c r="B34" s="76"/>
-      <c r="C34" s="73"/>
-      <c r="D34" s="76"/>
+      <c r="A34" s="69"/>
+      <c r="B34" s="89"/>
+      <c r="C34" s="91"/>
+      <c r="D34" s="89"/>
       <c r="E34" s="26">
         <v>2</v>
       </c>
       <c r="F34" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="G34" s="87"/>
+      <c r="G34" s="72"/>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
     </row>
@@ -3588,6 +3588,11 @@
     <row r="37" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A6:A17"/>
+    <mergeCell ref="B6:B17"/>
+    <mergeCell ref="C6:C17"/>
+    <mergeCell ref="D6:D17"/>
     <mergeCell ref="D18:D32"/>
     <mergeCell ref="G18:G32"/>
     <mergeCell ref="A33:A34"/>
@@ -3602,11 +3607,6 @@
     <mergeCell ref="D33:D34"/>
     <mergeCell ref="C33:C34"/>
     <mergeCell ref="B33:B34"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A6:A17"/>
-    <mergeCell ref="B6:B17"/>
-    <mergeCell ref="C6:C17"/>
-    <mergeCell ref="D6:D17"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="50" orientation="landscape" r:id="rId1"/>
@@ -4219,7 +4219,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4436,7 +4436,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
